--- a/v2.0.2/03-Analysis and design/eForms2ePO/2020-03-26-Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.2/03-Analysis and design/eForms2ePO/2020-03-26-Ontology_eForms_Mapping_New Regulation.xlsx
@@ -70123,8 +70123,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0b552c268e14c49f727da8a4278bee4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0145bd77e5eea22887f69a1ea8dc854b" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -70141,6 +70141,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -70183,6 +70185,16 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -70341,20 +70353,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB17C71-AFF2-4A03-8ED3-8FA26B238D8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD5EEA8-7983-4C26-B952-C942618E4E1B}"/>
 </file>